--- a/Tools/bin/GeneratorCSV/xls_config/system/#_ConditionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/system/#_ConditionConfig.xlsx
@@ -196,19 +196,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Player.TrigerTask</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.Mail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.Say</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
+  </si>
+  <si>
+    <t>CUtil.VIP_LEVEL(CUtil.Player)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUtil.LEAGUE_LEVEL(CUtil.Player)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUtil.TEST_MULIT_ARGS(CUtil.Player)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -222,24 +222,24 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>PLAYER_LEVEL(pPlayer)</t>
+      <t>PLAYER_LEVEL(CUtil.Player , CUtil.League)</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CUtil.VIP_LEVEL(pPlayer)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUtil.LEAGUE_LEVEL(pPlayer)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CUtil.pow()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CUtil.TEST_MULIT_ARGS(pPlayer)</t>
+    <t>CUtil.Player.TrigerTask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUtil.Player.Say</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUtil.Player.Mail(CUtil.League , CUtil.Team)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -649,14 +649,14 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="3" max="3" width="41.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.375" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
@@ -763,7 +763,7 @@
         <v>39</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
@@ -783,10 +783,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
@@ -804,10 +804,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
@@ -829,7 +829,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">

--- a/Tools/bin/GeneratorCSV/xls_config/system/#_ConditionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/system/#_ConditionConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -240,6 +240,10 @@
   </si>
   <si>
     <t>CUtil.Player.Mail(CUtil.League , CUtil.Team)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -646,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,121 +738,139 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>27</v>
-      </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B14" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" t="s">
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
         <v>6</v>
       </c>
     </row>
@@ -902,8 +924,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" t="s">
         <v>6</v>
       </c>
     </row>
@@ -912,23 +934,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" t="s">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B61" t="s">
         <v>6</v>
       </c>
     </row>
@@ -937,23 +959,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B122" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B125" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B146" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B151" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B147" t="s">
         <v>6</v>
       </c>
     </row>
@@ -974,6 +996,11 @@
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B156" t="s">
         <v>6</v>
       </c>
     </row>

--- a/Tools/bin/GeneratorCSV/xls_config/system/#_ConditionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/system/#_ConditionConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,6 +152,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -188,6 +189,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -219,6 +221,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -244,6 +247,18 @@
   </si>
   <si>
     <t>NULL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUtil.ChangeValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUtil.MinValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUtil.AddValue</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -263,11 +278,13 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -652,14 +669,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="31.875" customWidth="1"/>
+    <col min="2" max="2" width="52.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.375" customWidth="1"/>
     <col min="5" max="5" width="23.5" customWidth="1"/>
@@ -850,6 +867,9 @@
       <c r="B9" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="C9" s="6" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -857,6 +877,17 @@
       </c>
       <c r="B10" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">

--- a/Tools/bin/GeneratorCSV/xls_config/system/#_ConditionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/system/#_ConditionConfig.xlsx
@@ -118,18 +118,6 @@
   </si>
   <si>
     <t>strClientActionComment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.PLAYER_LEVEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.VIP_LEVEL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player.LEAGUE_LEVEL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -201,64 +189,55 @@
     <t>4</t>
   </si>
   <si>
-    <t>CUtil.VIP_LEVEL(CUtil.Player)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUtil.LEAGUE_LEVEL(CUtil.Player)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUtil.TEST_MULIT_ARGS(CUtil.Player)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>CUtil.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PLAYER_LEVEL(CUtil.Player , CUtil.League)</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUtil.pow()</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUtil.Player.TrigerTask</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUtil.Player.Say</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUtil.Player.Mail(CUtil.League , CUtil.Team)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CUtil.ChangeValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUtil.MinValue</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CUtil.AddValue</t>
+    <t>CUtil::MinValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUtil::AddValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUtil::Player.Say</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUtil::Player.TrigerTask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUtil::ChangeValue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUtil::VIP_LEVEL(CUtil::Player)</t>
+  </si>
+  <si>
+    <t>CUtil::Player.Mail(CUtil::League , CUtil::Team)</t>
+  </si>
+  <si>
+    <t>CUtil::LEAGUE_LEVEL(CUtil::Player)</t>
+  </si>
+  <si>
+    <t>CUtil::pow()</t>
+  </si>
+  <si>
+    <t>CUtil::TEST_MULIT_ARGS(CUtil::Player)</t>
+  </si>
+  <si>
+    <t>Player::PLAYER_LEVEL</t>
+  </si>
+  <si>
+    <t>Player::VIP_LEVEL</t>
+  </si>
+  <si>
+    <t>Player::LEAGUE_LEVEL</t>
+  </si>
+  <si>
+    <t>CUtil::PLAYER_LEVEL(CUtil::Player , CUtil::League)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -669,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -755,48 +734,48 @@
     </row>
     <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="G5" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -804,19 +783,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -827,19 +806,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -848,27 +827,27 @@
         <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
@@ -876,10 +855,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
@@ -887,7 +866,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">

--- a/Tools/bin/GeneratorCSV/xls_config/system/#_ConditionConfig.xlsx
+++ b/Tools/bin/GeneratorCSV/xls_config/system/#_ConditionConfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>int</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -838,6 +838,9 @@
       <c r="E8" s="6" t="s">
         <v>46</v>
       </c>
+      <c r="F8" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
@@ -849,6 +852,9 @@
       <c r="C9" s="6" t="s">
         <v>38</v>
       </c>
+      <c r="F9" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
@@ -859,6 +865,9 @@
       </c>
       <c r="C10" s="6" t="s">
         <v>35</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
